--- a/1. Raw Data/Excel_cleaned_state_finances/StateFinancesByYear2012.xlsx
+++ b/1. Raw Data/Excel_cleaned_state_finances/StateFinancesByYear2012.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d57n293\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coole\Documents\GitHub\ECNS_560_AS-RH\1. Raw Data\Excel_cleaned_state_finances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC88B52C-3562-493F-9F94-4D5D2F0EAA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E2AA25-6A9B-4FAA-B123-99D892C74254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{44211F5F-BFDC-46D5-90BD-B1AAB9139C13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{44211F5F-BFDC-46D5-90BD-B1AAB9139C13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="151">
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -485,6 +482,9 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
 </sst>
 </file>
@@ -540,9 +540,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -580,7 +580,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -686,7 +686,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -828,7 +828,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -839,7 +839,7 @@
   <dimension ref="A1:Z176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Z2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,87 +850,87 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2">
         <v>2012</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>29652729</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>23527080</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>9575193</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>9447717</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>127476</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>13951887</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>9049294</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>321530</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>4626357</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>2274658</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>2351699</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>541499</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>173251</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20">
         <v>126151</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21">
         <v>736533</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22">
         <v>774265</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23">
         <v>3017437</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24">
         <v>413253</v>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25">
         <v>201875</v>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26">
         <v>468842</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28">
         <v>4902593</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29">
         <v>3761561</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30">
         <v>2065662</v>
@@ -2930,7 +2930,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31">
         <v>2034269</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3090,7 +3090,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33">
         <v>1446088</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34">
         <v>750</v>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35">
         <v>91</v>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37">
         <v>144686</v>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38">
         <v>5367</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39">
         <v>1389</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40">
         <v>13933</v>
@@ -3730,7 +3730,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42">
         <v>6574</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43">
         <v>77021</v>
@@ -3970,7 +3970,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45">
         <v>1141032</v>
@@ -4050,7 +4050,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46">
         <v>270819</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48">
         <v>20070</v>
@@ -4290,7 +4290,7 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49">
         <v>850143</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4530,7 +4530,7 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4610,7 +4610,7 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -4770,7 +4770,7 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57">
         <v>267388</v>
@@ -4850,7 +4850,7 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59">
         <v>5858261</v>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60">
         <v>515929</v>
@@ -5010,7 +5010,7 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61">
         <v>5342332</v>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -5170,7 +5170,7 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65">
         <v>30813117</v>
@@ -5330,12 +5330,12 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B68">
         <v>6604884</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B69">
         <v>24208233</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B70">
         <v>16486557</v>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B71">
         <v>1933244</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B72">
         <v>1562328</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B73">
         <v>370916</v>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B74">
         <v>1973275</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B75">
         <v>340153</v>
@@ -5975,7 +5975,7 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B76">
         <v>3475004</v>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B77">
         <v>4245621</v>
@@ -6135,7 +6135,7 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B79">
         <v>24208233</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B80">
         <v>20485096</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81">
         <v>1933244</v>
@@ -6375,7 +6375,7 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B82">
         <v>18551852</v>
@@ -6455,12 +6455,12 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B85">
         <v>6523656</v>
@@ -6540,7 +6540,7 @@
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B86">
         <v>740369</v>
@@ -6620,7 +6620,7 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B87">
         <v>4600954</v>
@@ -6700,7 +6700,7 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B88">
         <v>726241</v>
@@ -6780,7 +6780,7 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -6940,7 +6940,7 @@
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B91">
         <v>1922702</v>
@@ -7020,7 +7020,7 @@
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B92">
         <v>3669</v>
@@ -7100,12 +7100,12 @@
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95">
         <v>7692033</v>
@@ -7185,7 +7185,7 @@
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>1529522</v>
@@ -7265,7 +7265,7 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>5549654</v>
@@ -7345,7 +7345,7 @@
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98">
         <v>612857</v>
@@ -7425,7 +7425,7 @@
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B99">
         <v>1403860</v>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B100">
         <v>76273</v>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B101">
         <v>528258</v>
@@ -7665,7 +7665,7 @@
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>100529</v>
@@ -7745,7 +7745,7 @@
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>11029</v>
@@ -7825,12 +7825,12 @@
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B106">
         <v>1455460</v>
@@ -7910,7 +7910,7 @@
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B107">
         <v>938564</v>
@@ -7990,7 +7990,7 @@
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B108">
         <v>1259</v>
@@ -8070,7 +8070,7 @@
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -8150,7 +8150,7 @@
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B110">
         <v>122808</v>
@@ -8230,12 +8230,12 @@
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B113">
         <v>115031</v>
@@ -8315,7 +8315,7 @@
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -8395,7 +8395,7 @@
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B115">
         <v>514855</v>
@@ -8475,7 +8475,7 @@
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B116">
         <v>10622</v>
@@ -8555,7 +8555,7 @@
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B117">
         <v>82966</v>
@@ -8635,12 +8635,12 @@
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B120">
         <v>239854</v>
@@ -8720,7 +8720,7 @@
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B121">
         <v>28620</v>
@@ -8800,7 +8800,7 @@
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B122">
         <v>21495</v>
@@ -8880,7 +8880,7 @@
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B123">
         <v>6830</v>
@@ -8960,7 +8960,7 @@
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B124">
         <v>15126</v>
@@ -9040,7 +9040,7 @@
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -9120,7 +9120,7 @@
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -9200,7 +9200,7 @@
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -9280,7 +9280,7 @@
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -9360,12 +9360,12 @@
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B131">
         <v>312355</v>
@@ -9445,7 +9445,7 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B132">
         <v>199271</v>
@@ -9525,7 +9525,7 @@
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B133">
         <v>3349</v>
@@ -9605,7 +9605,7 @@
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B134">
         <v>51452</v>
@@ -9685,7 +9685,7 @@
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B135">
         <v>340153</v>
@@ -9765,12 +9765,12 @@
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -9850,7 +9850,7 @@
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B139">
         <v>746628</v>
@@ -9930,7 +9930,7 @@
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -10010,7 +10010,7 @@
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -10090,7 +10090,7 @@
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -10170,7 +10170,7 @@
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -10250,7 +10250,7 @@
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -10330,7 +10330,7 @@
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -10410,7 +10410,7 @@
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B148">
         <v>248133</v>
@@ -10490,7 +10490,7 @@
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B150">
         <v>3475004</v>
@@ -10570,7 +10570,7 @@
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B151">
         <v>712100</v>
@@ -10650,7 +10650,7 @@
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B152">
         <v>2762904</v>
@@ -10730,7 +10730,7 @@
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -10810,7 +10810,7 @@
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -10890,7 +10890,7 @@
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B156">
         <v>8719430</v>
@@ -10970,7 +10970,7 @@
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B158">
         <v>30290</v>
@@ -11050,7 +11050,7 @@
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B159">
         <v>8689140</v>
@@ -11130,7 +11130,7 @@
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B160">
         <v>692027</v>
@@ -11210,7 +11210,7 @@
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B161">
         <v>503125</v>
@@ -11290,7 +11290,7 @@
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B162">
         <v>852353</v>
@@ -11370,7 +11370,7 @@
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B164">
         <v>38358422</v>
@@ -11450,7 +11450,7 @@
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B166">
         <v>25374283</v>
@@ -11530,7 +11530,7 @@
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B167">
         <v>209268</v>
@@ -11610,7 +11610,7 @@
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B168">
         <v>25165015</v>
@@ -11690,7 +11690,7 @@
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -11770,7 +11770,7 @@
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -11850,7 +11850,7 @@
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B172">
         <v>12984139</v>
@@ -11930,12 +11930,12 @@
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B174">
         <v>1659322</v>
@@ -12015,7 +12015,7 @@
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B175">
         <v>473658</v>
@@ -12095,7 +12095,7 @@
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B176">
         <v>10851159</v>
